--- a/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
+++ b/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\louisarmand.local\EspacePeda\Eleves_SIO\Eleves\BTS2SIOB\ALLAOUAT_Abdenour_(aallaouat)\Downloads\PORTFOLIO\Site\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdenour Allaouat\Desktop\Porfolios\Portfolio\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF50DB8-A627-4407-8119-A6B14B9B7AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -184,16 +185,26 @@
     <t>25/05/2023
 29/06/2023</t>
   </si>
+  <si>
+    <t>STAGE 2ème année : Création d'une application Windows, premettant de générer une carte interactive de l'ensemble de l'offre de formation de la région académique.</t>
+  </si>
+  <si>
+    <t>08/01/2024
+16/02/2024</t>
+  </si>
+  <si>
+    <t>img\index\conversasion.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,6 +278,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -675,12 +698,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -688,22 +740,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,10 +764,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +791,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,25 +818,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,13 +845,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -823,22 +875,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,12 +926,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,7 +965,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Multiplication 1"/>
+        <xdr:cNvPr id="2" name="Multiplication 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -943,9 +1014,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -983,9 +1054,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1091,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,7 +1126,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1228,14 +1299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,20 +1377,20 @@
       <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="16" t="s">
@@ -1339,20 +1410,20 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="9" t="s">
@@ -1371,38 +1442,38 @@
       <c r="X4" s="42"/>
     </row>
     <row r="5" spans="1:59" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="60"/>
     </row>
     <row r="6" spans="1:59" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1441,8 +1512,8 @@
       <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:59" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="41" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +1802,7 @@
       <c r="A11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="50">
         <v>45071</v>
       </c>
       <c r="C11" s="26"/>
@@ -1814,7 +1885,7 @@
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="43"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
@@ -1920,30 +1991,36 @@
       <c r="BF13"/>
       <c r="BG13"/>
     </row>
-    <row r="14" spans="1:59" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+    <row r="14" spans="1:59" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="12"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="45"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="W14" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="X14" s="34"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -1982,30 +2059,30 @@
       <c r="BG14"/>
     </row>
     <row r="15" spans="1:59" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="34"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -2043,30 +2120,30 @@
       <c r="BG15"/>
     </row>
     <row r="16" spans="1:59" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="34"/>
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
@@ -3609,10 +3686,13 @@
     <mergeCell ref="A4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W14" r:id="rId1" xr:uid="{3FE34BE2-AA96-414F-9BCA-7ACFBEB0C9F3}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
+++ b/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdenour Allaouat\Desktop\Porfolios\Portfolio\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C36C47-8078-42EE-ACF0-B20359245DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472CB2F-8BDB-414C-9DE5-00D27CC56814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,36 +992,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1041,7 +1011,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,8 +1420,8 @@
   </sheetPr>
   <dimension ref="A1:BG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1492,20 +1492,20 @@
       <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="9" t="s">
@@ -1525,20 +1525,20 @@
       <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="4" t="s">
@@ -1557,38 +1557,38 @@
       <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:59" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="62"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
     </row>
     <row r="6" spans="1:59" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1627,8 +1627,8 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:59" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="AH7" s="12"/>
     </row>
     <row r="8" spans="1:59" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17"/>
@@ -1734,7 +1734,7 @@
       <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="30"/>
@@ -1747,17 +1747,19 @@
       <c r="G9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
-      <c r="O9" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="37" t="s">
+      <c r="O9" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="55" t="s">
         <v>46</v>
       </c>
       <c r="Q9" s="37" t="s">
@@ -1776,7 +1778,7 @@
       </c>
     </row>
     <row r="10" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="30"/>
@@ -1814,7 +1816,7 @@
       </c>
     </row>
     <row r="11" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="61" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="30"/>
@@ -1856,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="31"/>
@@ -1884,7 +1886,7 @@
       <c r="X12" s="34"/>
     </row>
     <row r="13" spans="1:59" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -1898,7 +1900,7 @@
       <c r="H13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="58" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="42"/>
@@ -1914,9 +1916,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="S13" s="43"/>
       <c r="T13" s="52" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="X13" s="44"/>
     </row>
     <row r="14" spans="1:59" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="31"/>
@@ -1936,7 +1936,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -1954,7 +1954,7 @@
       <c r="X14" s="45"/>
     </row>
     <row r="15" spans="1:59" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -1976,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="42"/>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="58" t="s">
         <v>46</v>
       </c>
       <c r="L15" s="42"/>
@@ -3179,15 +3179,18 @@
     <hyperlink ref="P11" r:id="rId7" xr:uid="{1CDD4BAA-5D8C-40C9-A6EC-48034F6DDC86}"/>
     <hyperlink ref="T15" r:id="rId8" xr:uid="{DF189E34-0F40-49B7-86FA-C6D0736E5CEC}"/>
     <hyperlink ref="T13" r:id="rId9" xr:uid="{4869F7BF-28CD-4976-A905-220172F727C9}"/>
-    <hyperlink ref="I13" r:id="rId10" xr:uid="{9BE2650A-38EB-44B4-BBD4-1B1E77BBA955}"/>
-    <hyperlink ref="I15" r:id="rId11" xr:uid="{7975A937-EA02-40F7-B7C0-05B741C7C708}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{5C7D0272-D326-4D7B-83F1-635E5AB8B086}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{DB1F6209-EC97-4890-90FE-FA63C35876D1}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{5C7D0272-D326-4D7B-83F1-635E5AB8B086}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{DB1F6209-EC97-4890-90FE-FA63C35876D1}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{9BE2650A-38EB-44B4-BBD4-1B1E77BBA955}"/>
+    <hyperlink ref="P9" r:id="rId13" xr:uid="{B064EC02-B6E3-4625-9685-C20DDA098C88}"/>
+    <hyperlink ref="O9" r:id="rId14" xr:uid="{D4190991-FF55-472D-BCB1-F225352BC799}"/>
+    <hyperlink ref="K15" r:id="rId15" xr:uid="{E5D5E68E-1771-45C2-8096-E39104CF338A}"/>
+    <hyperlink ref="I15" r:id="rId16" xr:uid="{149650C3-D689-4EE9-B11E-5C123CF5D3CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId17"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
+++ b/assets/Tableau de synthèse - ALLAOUAT Abdenour - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdenour Allaouat\Desktop\Porfolios\Portfolio\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472CB2F-8BDB-414C-9DE5-00D27CC56814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051BD0C5-4D85-4FA9-9101-7E3B0D59CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$X$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$X$24</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -174,32 +174,20 @@
     <t>GILLA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>STAGE 1ère année</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : Création d'une application Windows, permettant de résoudre un problème auquel est confronté un service partenaire:
+    <t>Projet SWISS-PHARMA</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Création de profil Linkedin</t>
+  </si>
+  <si>
+    <t>STAGE 1ère année : Création d'une application Windows, permettant de résoudre un problème auquel est confronté un service partenaire:
 Problème : Sur la base de données 'Elèves' du Service Statestique de la DAFPI, certains élèves sont enregistré dans 2 établissement en même temps, le but est de créer une application qui permet à l'utilisateur d'envoyé email aux établissement pour confirmer la présence de l'élève, si le cas contraire, un autre email avec certaine consigne sera envoyé.</t>
-    </r>
-  </si>
-  <si>
-    <t>Projet SWISS-PHARMA</t>
-  </si>
-  <si>
-    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Jeu cible</t>
   </si>
 </sst>
 </file>
@@ -275,13 +263,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -296,6 +277,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -315,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -818,13 +806,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -911,97 +938,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1043,6 +1067,37 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1418,10 +1473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG83"/>
+  <dimension ref="A1:BG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1488,7 @@
     <col min="60" max="16384" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1518,7 @@
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
     </row>
-    <row r="2" spans="1:59" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -1491,21 +1546,21 @@
       <c r="W2" s="20"/>
       <c r="X2" s="20"/>
     </row>
-    <row r="3" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="9" t="s">
@@ -1524,21 +1579,21 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="4" t="s">
@@ -1556,39 +1611,39 @@
       </c>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:59" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:34" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
-    </row>
-    <row r="6" spans="1:59" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="69"/>
+    </row>
+    <row r="6" spans="1:34" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1626,9 +1681,9 @@
       <c r="W6" s="14"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:59" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
+    <row r="7" spans="1:34" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
@@ -1704,8 +1759,8 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
     </row>
-    <row r="8" spans="1:59" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:34" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17"/>
@@ -1733,13 +1788,15 @@
       <c r="X8" s="19"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="37"/>
       <c r="F9" s="56" t="s">
         <v>46</v>
@@ -1777,16 +1834,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>50</v>
+    <row r="10" spans="1:34" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -1794,41 +1851,29 @@
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="O10" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="55"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
-      <c r="S10" s="54" t="s">
-        <v>46</v>
-      </c>
+      <c r="S10" s="48"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>49</v>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="82"/>
+    </row>
+    <row r="11" spans="1:34" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>46</v>
-      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
@@ -1836,147 +1881,150 @@
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
-      <c r="O11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>46</v>
-      </c>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="48"/>
       <c r="T11" s="48"/>
       <c r="U11" s="49"/>
       <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="W11" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="81"/>
+    </row>
+    <row r="12" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
-    </row>
-    <row r="13" spans="1:59" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
+    </row>
+    <row r="15" spans="1:34" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="44"/>
-    </row>
-    <row r="14" spans="1:59" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="45"/>
-    </row>
-    <row r="15" spans="1:59" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>46</v>
-      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="58" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="42"/>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="42" t="s">
         <v>46</v>
       </c>
       <c r="L15" s="42"/>
@@ -1987,117 +2035,91 @@
       </c>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
       <c r="T15" s="52" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="43"/>
       <c r="V15" s="42"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="47"/>
-    </row>
-    <row r="16" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-    </row>
-    <row r="17" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="44"/>
+    </row>
+    <row r="16" spans="1:34" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="45"/>
+    </row>
+    <row r="17" spans="1:59" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="43"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="47"/>
     </row>
     <row r="18" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
@@ -2161,19 +2183,17 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
@@ -2249,7 +2269,7 @@
       <c r="BF20" s="12"/>
       <c r="BG20" s="12"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2300,30 +2320,30 @@
       <c r="BG21" s="12"/>
     </row>
     <row r="22" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
@@ -2349,7 +2369,7 @@
       <c r="BF22" s="12"/>
       <c r="BG22" s="12"/>
     </row>
-    <row r="23" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2374,32 +2394,80 @@
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
     </row>
     <row r="24" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
     </row>
     <row r="25" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
@@ -2505,7 +2573,7 @@
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2557,7 +2625,7 @@
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
-    <row r="31" spans="1:59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2713,7 +2781,7 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2739,8 +2807,58 @@
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
     </row>
-    <row r="38" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+    </row>
     <row r="40" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2770,58 +2888,8 @@
     <row r="66" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-    </row>
-    <row r="70" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-    </row>
+    <row r="69" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
@@ -3160,6 +3228,58 @@
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
     </row>
+    <row r="84" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+    </row>
+    <row r="85" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:A7"/>
@@ -3170,27 +3290,34 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R15" r:id="rId1" xr:uid="{7708233E-737F-496C-9BCE-5B5C76A42C00}"/>
-    <hyperlink ref="S10" r:id="rId2" xr:uid="{43B24AD5-83EA-462F-9F6A-2AE40C7D5D85}"/>
+    <hyperlink ref="R17" r:id="rId1" xr:uid="{7708233E-737F-496C-9BCE-5B5C76A42C00}"/>
+    <hyperlink ref="S12" r:id="rId2" xr:uid="{43B24AD5-83EA-462F-9F6A-2AE40C7D5D85}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{C4AA15CC-9BE0-4149-A942-9662C6E6D807}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{EBE2D10A-5639-4E3F-8511-DE504FB573E9}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{AF706853-EBC6-434F-A202-3C0748A877C3}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{EBE2D10A-5639-4E3F-8511-DE504FB573E9}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{AF706853-EBC6-434F-A202-3C0748A877C3}"/>
     <hyperlink ref="F9" r:id="rId6" xr:uid="{A332FE0E-A4C3-4C33-8178-6937A1BCBFB2}"/>
-    <hyperlink ref="P11" r:id="rId7" xr:uid="{1CDD4BAA-5D8C-40C9-A6EC-48034F6DDC86}"/>
-    <hyperlink ref="T15" r:id="rId8" xr:uid="{DF189E34-0F40-49B7-86FA-C6D0736E5CEC}"/>
-    <hyperlink ref="T13" r:id="rId9" xr:uid="{4869F7BF-28CD-4976-A905-220172F727C9}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{5C7D0272-D326-4D7B-83F1-635E5AB8B086}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{DB1F6209-EC97-4890-90FE-FA63C35876D1}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{9BE2650A-38EB-44B4-BBD4-1B1E77BBA955}"/>
+    <hyperlink ref="P13" r:id="rId7" xr:uid="{1CDD4BAA-5D8C-40C9-A6EC-48034F6DDC86}"/>
+    <hyperlink ref="T17" r:id="rId8" xr:uid="{DF189E34-0F40-49B7-86FA-C6D0736E5CEC}"/>
+    <hyperlink ref="T15" r:id="rId9" xr:uid="{4869F7BF-28CD-4976-A905-220172F727C9}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{5C7D0272-D326-4D7B-83F1-635E5AB8B086}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{DB1F6209-EC97-4890-90FE-FA63C35876D1}"/>
+    <hyperlink ref="I15" r:id="rId12" xr:uid="{9BE2650A-38EB-44B4-BBD4-1B1E77BBA955}"/>
     <hyperlink ref="P9" r:id="rId13" xr:uid="{B064EC02-B6E3-4625-9685-C20DDA098C88}"/>
     <hyperlink ref="O9" r:id="rId14" xr:uid="{D4190991-FF55-472D-BCB1-F225352BC799}"/>
-    <hyperlink ref="K15" r:id="rId15" xr:uid="{E5D5E68E-1771-45C2-8096-E39104CF338A}"/>
-    <hyperlink ref="I15" r:id="rId16" xr:uid="{149650C3-D689-4EE9-B11E-5C123CF5D3CC}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{E5D5E68E-1771-45C2-8096-E39104CF338A}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{149650C3-D689-4EE9-B11E-5C123CF5D3CC}"/>
+    <hyperlink ref="W11" r:id="rId17" xr:uid="{990B14BC-8C25-4E11-B63F-F240F1B925FF}"/>
+    <hyperlink ref="A15" r:id="rId18" display="img\index\Documentation_Double_1D.pdf" xr:uid="{B386FA85-F3F5-406F-95E9-9B0B112E6CB8}"/>
+    <hyperlink ref="A9" r:id="rId19" xr:uid="{239FDC1A-2A0B-4956-BB47-EAE8A5BD7894}"/>
+    <hyperlink ref="A11" r:id="rId20" xr:uid="{13D2B604-C4E7-4656-91A3-0CDD24BA41F3}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{AF9D43A5-FEDF-4A9A-8048-AF88EF96D548}"/>
+    <hyperlink ref="V12" r:id="rId22" xr:uid="{CAC40CD4-D91F-46EE-8357-16E66F1ADA90}"/>
+    <hyperlink ref="X11" r:id="rId23" xr:uid="{F755FBFD-33A7-457E-ACF2-DD6BC420CF5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId24"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>